--- a/tigerAirMobileAutomation/src/main/java/com/tigerAir/mobileAutomation/testData/testData.xlsx
+++ b/tigerAirMobileAutomation/src/main/java/com/tigerAir/mobileAutomation/testData/testData.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BookFlight" sheetId="1" r:id="rId1"/>
+    <sheet name="PNR" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCasesData" sheetId="4" r:id="rId4"/>
+    <sheet name="PP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="136">
   <si>
     <t>Departure From</t>
   </si>
@@ -31,13 +35,410 @@
   </si>
   <si>
     <t>Sydney</t>
+  </si>
+  <si>
+    <t>C2DN5Y</t>
+  </si>
+  <si>
+    <t>PNR_Number</t>
+  </si>
+  <si>
+    <t>U74NTC</t>
+  </si>
+  <si>
+    <t>U21HRR</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>JCUW2X</t>
+  </si>
+  <si>
+    <t>WBKEMD</t>
+  </si>
+  <si>
+    <t>L5K8WF</t>
+  </si>
+  <si>
+    <t>J9CSSW</t>
+  </si>
+  <si>
+    <t>B6UBGM</t>
+  </si>
+  <si>
+    <t>W4U9XY</t>
+  </si>
+  <si>
+    <t>O5Y1XV</t>
+  </si>
+  <si>
+    <t>C8W2NW</t>
+  </si>
+  <si>
+    <t>RCMBJN</t>
+  </si>
+  <si>
+    <t>IEFIXH</t>
+  </si>
+  <si>
+    <t>F5PSKC</t>
+  </si>
+  <si>
+    <t>L89SJZ</t>
+  </si>
+  <si>
+    <t>I3S54V</t>
+  </si>
+  <si>
+    <t>AFKFMB</t>
+  </si>
+  <si>
+    <t>KYJGVT</t>
+  </si>
+  <si>
+    <t>KB8MJQ</t>
+  </si>
+  <si>
+    <t>Q93PKJ</t>
+  </si>
+  <si>
+    <t>PYWHPT</t>
+  </si>
+  <si>
+    <t>P9FCFW</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankit </t>
+  </si>
+  <si>
+    <t>Kansal</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Paril</t>
+  </si>
+  <si>
+    <t>smhsdk</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>Q9RKSW</t>
+  </si>
+  <si>
+    <t>BEVUTE</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>CurrencyText</t>
+  </si>
+  <si>
+    <t>ActualCurrencySelection</t>
+  </si>
+  <si>
+    <t>ReturnType</t>
+  </si>
+  <si>
+    <t>JourneyTypeSelection</t>
+  </si>
+  <si>
+    <t>SelectFromWhere</t>
+  </si>
+  <si>
+    <t>SelecttoWhere</t>
+  </si>
+  <si>
+    <t>SelectionDate</t>
+  </si>
+  <si>
+    <t>noOfAdults</t>
+  </si>
+  <si>
+    <t>noOfchilds</t>
+  </si>
+  <si>
+    <t>noofInfants</t>
+  </si>
+  <si>
+    <t>departureDate</t>
+  </si>
+  <si>
+    <t>ArrivalDate</t>
+  </si>
+  <si>
+    <t>expressFare</t>
+  </si>
+  <si>
+    <t>passengerListName</t>
+  </si>
+  <si>
+    <t>selectCabonBaggageYesorNo</t>
+  </si>
+  <si>
+    <t>selectKGforcabin</t>
+  </si>
+  <si>
+    <t>selectKGforCheckin</t>
+  </si>
+  <si>
+    <t>selectQueueJumpYesorNo</t>
+  </si>
+  <si>
+    <t>selectCarbonOffsetYesorNo</t>
+  </si>
+  <si>
+    <t>selectSportsEquipmentYesorNo</t>
+  </si>
+  <si>
+    <t>selectSportsEquipmentpiece</t>
+  </si>
+  <si>
+    <t>selectseatyesOrNo</t>
+  </si>
+  <si>
+    <t>SeatNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>emailAdress</t>
+  </si>
+  <si>
+    <t>confirmEmail</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>cardHolderName</t>
+  </si>
+  <si>
+    <t>cardNumber</t>
+  </si>
+  <si>
+    <t>selectMonth</t>
+  </si>
+  <si>
+    <t>selectYear</t>
+  </si>
+  <si>
+    <t>cvvID</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>One Way</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>Adult 1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>14 Villeneuve Street</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>p@a.com</t>
+  </si>
+  <si>
+    <t>Credit / Debit</t>
+  </si>
+  <si>
+    <t>PP Heins</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>4444333322221111</t>
+  </si>
+  <si>
+    <t>+16198718785</t>
+  </si>
+  <si>
+    <t>1Adult_OneWay_Currency(AUD)_FareType(Light)_FOP(VISA CC)</t>
+  </si>
+  <si>
+    <t>1Adult_1Child_OneWay_Currency(AUD)_FareType(Light)_Cabin+_QueueJump_Carbon_FOP(VISA DB)</t>
+  </si>
+  <si>
+    <t>4Adult_OneWay_Currency(AUD)_FareType(Express)_Baggage(25kg)_QueueJump_1SportsEquipment_Carbon_FOP(MASTER DC)</t>
+  </si>
+  <si>
+    <t>2Adult_OneWay_Currency(AUD)_FareType(Light)_Cabin+_Baggage(20kg)_QueueJump_2SportsEquipment_Carbon_FOP(POLi)</t>
+  </si>
+  <si>
+    <t>1Adult_8Child_OneWay_Currency(NZD)_FareType(Light)_Cabin+_Baggage(30kg)_QueueJump_1SportsEquipment_FOP(MASTER DC)</t>
+  </si>
+  <si>
+    <t>1Adult_OneWay_Currency(NZD)_FareType(Express)_Cabin+_Baggage(35kg)_QueueJump_3SportsEquipment_Carbon_FOP(MASTER CC)</t>
+  </si>
+  <si>
+    <t>1Adult_1Child_OneWay_Currency(NZD)_FareType(Light)_Cabin+_Carbon_FOP(VISA DB)</t>
+  </si>
+  <si>
+    <t>1Adult_Return_Currency(AUD)_FareType1(Light)_FOP(VISA CC)</t>
+  </si>
+  <si>
+    <t>1Adult_1Child_Return_Currency(AUD)_FareType(Light)_Cabin+_QueueJump_Carbon_FOP(VISA DB)</t>
+  </si>
+  <si>
+    <t>4Adult_Return_Currency(AUD)_FareType(Express)_Baggage(25kg)_QueueJump_1SportsEquipment_Carbon_FOP(MASTER DC)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>7 kg</t>
+  </si>
+  <si>
+    <t>00 kg</t>
+  </si>
+  <si>
+    <t>DARRAWEIT GUIM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>EXPRESS</t>
+  </si>
+  <si>
+    <t>25 kg</t>
+  </si>
+  <si>
+    <t>1 Piece</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20 kg</t>
+  </si>
+  <si>
+    <t>2 Pieces</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>30 kg</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>35 kg</t>
+  </si>
+  <si>
+    <t>3 Pieces</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>4005550000000001</t>
+  </si>
+  <si>
+    <t>5217291812876194</t>
+  </si>
+  <si>
+    <t>5210000010001001</t>
+  </si>
+  <si>
+    <t>G7S68J</t>
+  </si>
+  <si>
+    <t>R3HW7Y</t>
+  </si>
+  <si>
+    <t>SB778Q</t>
+  </si>
+  <si>
+    <t>W3RR6Y</t>
+  </si>
+  <si>
+    <t>CEJJFE</t>
+  </si>
+  <si>
+    <t>GB9Q4N</t>
+  </si>
+  <si>
+    <t>C8H6GW</t>
+  </si>
+  <si>
+    <t>Q9TJ3T</t>
+  </si>
+  <si>
+    <t>I6UP8M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +454,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,13 +479,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,19 +789,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -377,16 +809,1605 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.05078125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="22.453125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="30.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="12.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="22.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="13.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="24.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="17.7265625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="14.81640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.81640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="13.90625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="13.26953125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="15.08984375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="2" width="15.54296875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="2" width="10.6328125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="13.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="20.36328125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="2" width="25.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="2" width="17.54296875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="2" width="21.08984375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="2" width="23.08984375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="2" width="23.7265625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="2" width="27.08984375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="2" width="33.26953125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="14.453125" collapsed="true"/>
+    <col min="24" max="29" style="2" width="8.7265625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="2" width="16.08984375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="2" width="17.26953125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="2" width="16.54296875" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="2" width="16.453125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="2" width="25.08984375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="2" width="20.36328125" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.7265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="3">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="3">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="156" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="3">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tigerAirMobileAutomation/src/main/java/com/tigerAir/mobileAutomation/testData/testData.xlsx
+++ b/tigerAirMobileAutomation/src/main/java/com/tigerAir/mobileAutomation/testData/testData.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BookFlight" sheetId="1" r:id="rId1"/>
-    <sheet name="PNR" sheetId="2" r:id="rId2"/>
-    <sheet name="Details" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCasesData" sheetId="4" r:id="rId4"/>
-    <sheet name="PP" sheetId="5" r:id="rId5"/>
+    <sheet name="PNR_1" sheetId="2" r:id="rId2"/>
+    <sheet name="PNR" sheetId="6" r:id="rId3"/>
+    <sheet name="Details" sheetId="3" r:id="rId4"/>
+    <sheet name="TestCas" sheetId="4" r:id="rId5"/>
+    <sheet name="TestCasesData" sheetId="7" r:id="rId6"/>
+    <sheet name="PP" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="220">
   <si>
     <t>Departure From</t>
   </si>
@@ -431,13 +433,264 @@
   </si>
   <si>
     <t>I6UP8M</t>
+  </si>
+  <si>
+    <t>RFGK2R</t>
+  </si>
+  <si>
+    <t>RYTYST</t>
+  </si>
+  <si>
+    <t>MYQKKD</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>B8QRTW</t>
+  </si>
+  <si>
+    <t>N5NN6C</t>
+  </si>
+  <si>
+    <t>E752FM</t>
+  </si>
+  <si>
+    <t>A7QVUZ</t>
+  </si>
+  <si>
+    <t>K6W5MP</t>
+  </si>
+  <si>
+    <t>TF2VPH</t>
+  </si>
+  <si>
+    <t>XYDHRW</t>
+  </si>
+  <si>
+    <t>C5Y1NS</t>
+  </si>
+  <si>
+    <t>DEQLKE</t>
+  </si>
+  <si>
+    <t>G9LVSG</t>
+  </si>
+  <si>
+    <t>YFL48E</t>
+  </si>
+  <si>
+    <t>WB87QT</t>
+  </si>
+  <si>
+    <t>GC9N5K</t>
+  </si>
+  <si>
+    <t>E1VV2L</t>
+  </si>
+  <si>
+    <t>VBM6QD</t>
+  </si>
+  <si>
+    <t>N638RS</t>
+  </si>
+  <si>
+    <t>BCFL4X</t>
+  </si>
+  <si>
+    <t>X25JNR</t>
+  </si>
+  <si>
+    <t>K6GCSC</t>
+  </si>
+  <si>
+    <t>NETCXH</t>
+  </si>
+  <si>
+    <t>S3KV8Y</t>
+  </si>
+  <si>
+    <t>QYGCYG</t>
+  </si>
+  <si>
+    <t>VEVQWX</t>
+  </si>
+  <si>
+    <t>Z63BXV</t>
+  </si>
+  <si>
+    <t>MC1TQA</t>
+  </si>
+  <si>
+    <t>L88ZKZ</t>
+  </si>
+  <si>
+    <t>GDPHSX</t>
+  </si>
+  <si>
+    <t>F5IWRS</t>
+  </si>
+  <si>
+    <t>QBSLQQ</t>
+  </si>
+  <si>
+    <t>B1TW6L</t>
+  </si>
+  <si>
+    <t>H9EN8T</t>
+  </si>
+  <si>
+    <t>J89RQZ</t>
+  </si>
+  <si>
+    <t>IDPFQX</t>
+  </si>
+  <si>
+    <t>P9SWWW</t>
+  </si>
+  <si>
+    <t>FYP95A</t>
+  </si>
+  <si>
+    <t>GFLMPR</t>
+  </si>
+  <si>
+    <t>Z9497J</t>
+  </si>
+  <si>
+    <t>W4QNFI</t>
+  </si>
+  <si>
+    <t>N8SMKJ</t>
+  </si>
+  <si>
+    <t>B41KMV</t>
+  </si>
+  <si>
+    <t>JDFWTK</t>
+  </si>
+  <si>
+    <t>E7LZ5J</t>
+  </si>
+  <si>
+    <t>BDLJMH</t>
+  </si>
+  <si>
+    <t>U4ZTRL</t>
+  </si>
+  <si>
+    <t>RYHS5D</t>
+  </si>
+  <si>
+    <t>QEHWGH</t>
+  </si>
+  <si>
+    <t>Q9T82T</t>
+  </si>
+  <si>
+    <t>EB7C5N</t>
+  </si>
+  <si>
+    <t>I7FZ5Z</t>
+  </si>
+  <si>
+    <t>V5Q47S</t>
+  </si>
+  <si>
+    <t>Q6GIHC</t>
+  </si>
+  <si>
+    <t>WCHF8N</t>
+  </si>
+  <si>
+    <t>2Adult__Return_Currency(AUD)_FareType(Light)_Cabin+_Baggage(20kg)_QueueJump_2SportsEquipment_Carbon__FOP(POLi)</t>
+  </si>
+  <si>
+    <t>1Adult_8Child_Return_Currency(NZD)_FareType(Light)_Cabin+_Baggage(30kg)_QueueJump_1SportsEquipment_FOP(MASTER DC)</t>
+  </si>
+  <si>
+    <t>1Adult_Return_Currency(NZD)_FareType(Express)_Cabin+_Baggage(35kg)_QueueJump_3SportsEquipment_Carbon_FOP(MASTER CC)</t>
+  </si>
+  <si>
+    <t>1Adult_1Child_Return_Currency(NZD)_FareType(Light)_Cabin+_Carbon_FOP(VISA DB)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>LYCWNT</t>
+  </si>
+  <si>
+    <t>E4B8NV</t>
+  </si>
+  <si>
+    <t>B4R45C</t>
+  </si>
+  <si>
+    <t>V3NR4Y</t>
+  </si>
+  <si>
+    <t>S8244Z</t>
+  </si>
+  <si>
+    <t>OCTMWN</t>
+  </si>
+  <si>
+    <t>G3KHRY</t>
+  </si>
+  <si>
+    <t>HYU1XD</t>
+  </si>
+  <si>
+    <t>Z9YYMZ</t>
+  </si>
+  <si>
+    <t>OEWJPH</t>
+  </si>
+  <si>
+    <t>V4EJKY</t>
+  </si>
+  <si>
+    <t>VBENJD</t>
+  </si>
+  <si>
+    <t>P54GMV</t>
+  </si>
+  <si>
+    <t>SF6QXH</t>
+  </si>
+  <si>
+    <t>F5MMVS</t>
+  </si>
+  <si>
+    <t>GDRW6U</t>
+  </si>
+  <si>
+    <t>A9TPYT</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>LYJGUT</t>
+  </si>
+  <si>
+    <t>KF687R</t>
+  </si>
+  <si>
+    <t>B3E36V</t>
+  </si>
+  <si>
+    <t>B5M3NC</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,13 +1048,13 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -828,190 +1081,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.05078125" collapsed="true"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1021,48 +1287,420 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.453125" collapsed="true"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1072,50 +1710,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="30.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="12.453125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="22.1796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="13.6328125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="24.54296875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="17.7265625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="14.81640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="12.81640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="13.90625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="13.26953125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="15.08984375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="2" width="15.54296875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="2" width="10.6328125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="2" width="13.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="2" width="20.36328125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="2" width="25.81640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="2" width="17.54296875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="2" width="21.08984375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="2" width="23.08984375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="2" width="23.7265625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="2" width="27.08984375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="2" width="33.26953125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="2" width="14.453125" collapsed="true"/>
-    <col min="24" max="29" style="2" width="8.7265625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="2" width="16.08984375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="2" width="17.26953125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="2" width="19.1796875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="2" width="16.54296875" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="2" width="16.453125" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="2" width="25.08984375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="2" width="17.0" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="2" width="20.36328125" collapsed="true"/>
-    <col min="38" max="16384" style="2" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="30" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="8.77734375" style="2" collapsed="1"/>
+    <col min="30" max="30" width="16.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="19.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="25.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="20.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.77734375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1231,7 +1920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -1248,22 +1937,22 @@
         <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3">
-        <v>30</v>
+      <c r="H2" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+      <c r="J2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="L2" s="3">
         <v>20</v>
@@ -1353,17 +2042,823 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="23.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="29" width="8.77734375" style="2" collapsed="1"/>
+    <col min="30" max="30" width="16.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="19.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="16.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="25.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17" style="2" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="20.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.77734375" style="2" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="52.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AL13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>96</v>
       </c>
@@ -1380,13 +2875,13 @@
         <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="3">
-        <v>30</v>
+      <c r="H1" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I1" s="3">
         <v>1</v>
@@ -1479,7 +2974,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
@@ -1496,13 +2991,13 @@
         <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3">
-        <v>30</v>
+      <c r="H2" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>110</v>
@@ -1595,7 +3090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -1612,13 +3107,13 @@
         <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="3">
-        <v>30</v>
+      <c r="H3" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>114</v>
@@ -1711,7 +3206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>99</v>
       </c>
@@ -1728,13 +3223,13 @@
         <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="3">
-        <v>30</v>
+      <c r="H4" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -1827,7 +3322,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" ht="156" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="2" customFormat="1" ht="156" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
@@ -1844,13 +3339,13 @@
         <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="3">
-        <v>30</v>
+      <c r="H5" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1943,7 +3438,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>101</v>
       </c>
@@ -1960,13 +3455,13 @@
         <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="3">
-        <v>30</v>
+      <c r="H6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -2059,7 +3554,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>102</v>
       </c>
@@ -2076,13 +3571,13 @@
         <v>77</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="3">
-        <v>30</v>
+      <c r="H7" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>105</v>
@@ -2175,7 +3670,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>103</v>
       </c>
@@ -2192,13 +3687,13 @@
         <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="3">
-        <v>30</v>
+      <c r="H8" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -2291,7 +3786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" s="2" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>104</v>
       </c>
@@ -2308,16 +3803,16 @@
         <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
+      <c r="H9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -2332,7 +3827,7 @@
         <v>123</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>81</v>
@@ -2344,7 +3839,7 @@
         <v>107</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>32</v>
@@ -2404,6 +3899,470 @@
         <v>2021</v>
       </c>
       <c r="AL9" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="96" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>3756</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="AL13" s="3">
         <v>211</v>
       </c>
     </row>
